--- a/biology/Botanique/Dactylis_glomerata_subsp._lobata/Dactylis_glomerata_subsp._lobata.xlsx
+++ b/biology/Botanique/Dactylis_glomerata_subsp._lobata/Dactylis_glomerata_subsp._lobata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dactyle d'Ascherson  (Dactylis glomerata L. subsp. lobata), est une plante herbacée vivace de la famille des Poacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dactylis glomerata L. subsp. aschersoniana Graebn.
 Dactylis polygama Horvat.</t>
@@ -542,9 +556,11 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du grec dactulos : doigt (forme de l'inflorescence); Paul Ascherson : botaniste allemand (1834-1913)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du grec dactulos : doigt (forme de l'inflorescence); Paul Ascherson : botaniste allemand (1834-1913).
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">25 à 125 cm de hauteur. Comme D. glomerata subsp. glomerata mais sa couleur est vert franc (et non vert bleuté). Les feuilles sont souples, non caniculées, ni pliées.
 </t>
@@ -604,7 +622,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêts feuillues, clairières. Absent des sites rudéralisés. Étage collinéen et montagnard.
 </t>
@@ -635,7 +655,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante médioeuropéenne. Bassin parisien, Est de la France. Absente (ou peu connue) ailleurs.
 </t>
